--- a/ferramentas.xlsx
+++ b/ferramentas.xlsx
@@ -5,915 +5,1144 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="962" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="298">
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINGUAGEM_DE_PROGRAMACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java é uma linguagem de programação interpretada orientada a objetos desenvolvida na década de 90 e diferente das linguagens de programação convencionais, que são compiladas para código nativo, a linguagem Java é compilada para um bytecode que é interpretado por uma máquina virtual (Java Virtual Machine, mais conhecida pela sua abreviação JVM). A linguagem de programação Java é a linguagem convencional da Plataforma Java, mas não é a sua única linguagem. O foco da plataforma é outro: aplicações de médio a grande porte, onde o time de desenvolvedores tem várias pessoas e sempre pode vir a mudar e crescer. Não tenha dúvidas que criar a primeira versão de uma aplicação usando Java, mesmo utilizando IDEs e ferramentas poderosas, será mais trabalhoso que muitas linguagens script ou de alta produtividade. Porém, com uma linguagem orientada a objetos e madura como o Java, será extremamente mais fácil e rápido fazer alterações no sistema, desde que você siga as boas práticas e recomendações sobre design orientado a objetos. Além disso, a quantidade enorme de bibliotecas gratuitas para  realizar os mais diversos trabalhos (tais como  relatórios, gráficos, sistemas de busca, geração de código de barra, manipulação de XML, tocadores de vídeo, manipuladores de texto, persistência transparente, impressão, etc) é um ponto fortíssimo para adoção do Java: você pode criar uma aplicação sofisticada, usando diversos recursos, sem precisar comprar um componente específico, que costuma ser caro. O ecossistema do Java é enorme. Cada linguagem tem seu espaço e seu melhor uso. O uso do Java é interessante em aplicações que virão a crescer, em que a legibilidade do código é importante, onde temos muita conectividade e se há muitas plataformas (ambientes e sistemas operacionais) heterogêneas (Linux, Unix, OSX e Windows misturados). [fonte: apostila FJ11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# (lê-se "cê xarpe") é uma linguagem de programação, multi-paradigma, fortemente 'tipada', e, possuindo paradigmas de programação imperativa, funcional, declarativa, orientada a objetos e genérica, C# foi desenvolvida pela Microsoft como parte da plataforma .NET. A sua sintaxe orientada a objetos foi baseada no C++ mas inclui muitas influências de outras linguagens de programação, como Object Pascal e, principalmente, Java. O código fonte é compilado para Common Intermediate Language (CIL) que é interpretado pela máquina virtual Common Language Runtime (CLR). C# é uma das linguagens projetadas para funcionar na Common Language Infrastructure da plataforma .NET Framework. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python é uma linguagem de programação de alto nível, interpretada, de script, imperativa, orientada a objetos, funcional, de tipagem dinâmica e forte. Foi lançada por Guido van Rossum em 1991. Atualmente possui um modelo de desenvolvimento comunitário, aberto e gerenciado pela organização sem fins lucrativos Python Software Foundation. Apesar de várias partes da linguagem possuírem padrões e especificações formais, a linguagem como um todo não é formalmente especificada. O padrão de facto é a implementação Cpython. A linguagem foi projetada com a filosofia de enfatizar a importância do esforço do programador sobre o esforço computacional. Prioriza a legibilidade do código sobre a velocidade ou expressividade. Combina uma sintaxe concisa e clara com os recursos poderosos de sua biblioteca padrão e por módulos e frameworks desenvolvidos por terceiros. Python é uma linguagem de propósito geral, possui tipagem dinâmica e uma de suas principais características é permitir a fácil leitura do código e exigir poucas linhas de código se comparado ao mesmo programa em outras linguagens. Devido às suas características, ela é principalmente utilizada para processamento de textos, dados científicos e criação de CGIs para páginas dinâmicas para a web. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JavaScript é uma linguagem de programação interpretada. Foi originalmente implementada como parte dos navegadores web para que scripts pudessem ser executados do lado do cliente e interagissem com o usuário sem a necessidade deste script passar pelo servidor, controlando o navegador, realizando comunicação assíncrona e alterando o conteúdo do documento exibido. É atualmente a principal linguagem para programação client-side em navegadores web. Começa também a ser bastante utilizada do lado do servidor através de ambientes como o node.js. Foi concebida para ser uma linguagem script com orientação a objetos baseada em protótipos, tipagem fraca e dinâmica e funções de primeira classe. Possui suporte à programação funcional e apresenta recursos como fechamentos e funções de alta ordem comumente indisponíveis em linguagens populares como Java e C++. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição C++</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haskell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Haskell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Lisp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Ruby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R é uma linguagem e também um ambiente de desenvolvimento integrado para cálculos estatísticos e gráficos. O código fonte do R está disponível sob a licença GNU GPL e as versões binárias pré-compiladas são fornecidas para Windows, Macintosh, e muitos sistemas operacionais Unix/Linux. A linguagem R é largamente usada entre estatísticos e analistas de dados para desenvolver software de estatística e análise de dados. Pesquisas e levantamentos com profissionais da área mostram que a popularidade do R aumentou substancialmente nos últimos anos. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINGUAGEM_DE_MARCACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOLHA_DE_ESTILO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cascading Style Sheets (CSS) é um simples mecanismo para adicionar estilo (cores, fontes, espaçamento, etc.) a um documento web. Definição de estilo é um conjunto de propriedades visuais para um elemento, o CSS define regras que fazem as definições de estilo casarem com um elemento ou grupo de elemento, o documento pode conter um bloco de CSS num elemento style ou usando o element link apontando para um arquivo externo que contenha o bloco CSS. Com a variação de atualizações dos navegadores, o suporte ao CSS pode variar. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Kotlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Swift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Objective-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANCO_DE_DADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O MySQL é um sistema de gerenciamento de banco de dados (SGBD), que utiliza a linguagem SQL (Linguagem de Consulta Estruturada, do inglês Structured Query Language) como interface. É atualmente um dos sistemas de gerenciamento de bancos de dados mais populares, com mais de 10 milhões de instalações pelo mundo. O sucesso do MySQL deve-se em grande medida à fácil integração com o PHP incluído, quase que obrigatoriamente, nos pacotes de hospedagem de sites da Internet oferecidos atualmente. Dentre as principais características estão: Portabilidade (suporta praticamente qualquer plataforma atual); Compatibilidade (existem drivers ODBC, JDBC e .NET e módulos de interface para diversas linguagens de programação, como Delphi, Java, C/C++, C#, Visual Basic, Python, Perl, PHP, ASP e Ruby) e contempla a utilização de vários Storage Engines como MyISAM, InnoDB, Falcon, BDB, Archive, Federated, CSV, Solid, etc... É de fácil manuseio e possui excelente desempenho e estabilidade. Suporta controle transacional, triggers, ccrsors, stored procedures e functions. [fonte: Wikipedia].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MongoDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição MongoDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição MariaDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQLServer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição SQLServer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRAMEWORK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Spring é um framework open source para a plataforma Java baseado nos padrões de projeto inversão de controle (IoC) e injeção de dependência. Esse framework oferece diversos módulos que podem ser utilizados de acordo com as necessidades do projeto, como módulos voltados para desenvolvimento Web, persistência, acesso remoto e programação orientada a aspectos. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição hibernate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask é um pequeno framework web escrito em Python e baseado na biblioteca WSGI Werkzeug e na biblioteca de Jinja2. Flask tem a flexibilidade da linguagem de programação Python e provê um modelo simples para desenvolvimento web. Uma vez importando no Python, Flask pode ser usado para economizar tempo construindo aplicações web. É chamado de microframework porque mantem um núcleo simples mas estendível. Não há uma camada de abstração do banco de dados, validação de formulários, ou qualquer outro componente onde bibliotecas de terceiros existem para prover a funcionalidade. Assim, Flask suporta extensões capazes de adicionar tais funcionalidades na aplicação final. Há uma vasta coleção de bibliotecas para resolver essas questões em Python, isso simplifica o framework e torna sua curva de aprendizado mais suave. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django é um framework para desenvolvimento rápido para web, escrito em Python, que utiliza o padrão model-template-view (MTV). Django utiliza o princípio DRY (Don't Repeat Yourself), onde faz com que o desenvolvedor aproveite ao máximo o código já feito, evitando a repetição. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JDBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTOCOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Hypertext Transfer Protocol, sigla HTTP (em português Protocolo de Transferência de Hipertexto) é um protocolo de comunicação (na camada de aplicação segundo o Modelo OSI) utilizado para sistemas de informação de hipermídia, distribuídos e colaborativos. Ele é a base para a comunicação de dados da World Wide Web. Hipertexto é o texto estruturado que utiliza ligações lógicas (hiperlinks) entre nós contendo texto. O HTTP é o protocolo para a troca ou transferência de hipertexto. O HTTP funciona como um protocolo de requisição-resposta no modelo computacional cliente-servidor. Um navegador web, por exemplo, pode ser o cliente e uma aplicação em um computador que hospeda um sítio da web pode ser o servidor. O cliente submete uma mensagem de requisição HTTP para o servidor. O servidor, que fornece os recursos, como arquivos HTML e outros conteúdos, ou realiza outras funções de interesse do cliente, retorna uma mensagem resposta para o cliente. A resposta contém informações de estado completas sobre a requisição e pode também conter o conteúdo solicitado no corpo de sua mensagem. [fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERSIONAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição GIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUILD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Maven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Play Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jquery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIBLIOTECA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jQuery é uma biblioteca de funções JavaScrip que interage com o HTML, desenvolvida para simplificar os scripts interpretados no navegador do cliente. Usada por cerca de 77% dos 10 mil sites mais visitados do mundo, jQuery é a mais popular das bibliotecas JavaScript. A sintaxe do jQuery foi desenvolvida para tornar mais simples a navegação do documento HTML, a seleção de elementos DOM, criar animações, manipular eventos, desenvolver aplicações AJAX e criação de plugins sobre ela. Tais facilidades permitem aos desenvolvedores criarem camadas de abstração para interações de baixo nível de modo simplificado em aplicações web dinâmicas de grande complexidade.[fonte: Wikipedia]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primefaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição primefaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Spring Boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPECIFICACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JAAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAX-RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JAS-RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estatística</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Estatística</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Arduino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon Alexa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Amazon Alexa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Raspberry Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MQTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição MQTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NodeMcu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição NodeMcu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robótica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Robótica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASP .NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição ASP .NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição .NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição REST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebSockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição WebSockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Android Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Fragments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Google Maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição GPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jogos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Jogos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição iOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cordova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Cordova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhoneGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição phoneGap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xamarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Xamarin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Visual Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ionic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Ionic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Angular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JSTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EJB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição EJB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição CDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring MVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Spring MVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Spring Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Spring Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAX-WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição JAX-WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActiveMQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição ActiveMQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Camel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Apache Camel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rest Assured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Rest Assured</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição SOLID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java Reflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Java reflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição XML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Threads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Eclipse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntelliJ IDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição intelliJ IDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição TDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste de Integração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição teste de integração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição entity framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição MVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C# Reflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição C# Reflection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity Framework Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Entity Framework core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entity LinQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição LinQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby on Rails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Ruby on rails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição wordpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatbot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Chatbot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocos Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Cocos Creator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Amazon IoT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição GPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Jasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progressive Web Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição progressive web apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Gulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Sass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Compass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome Dev Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Chrome Dev Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Node.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição react</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Webpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição redux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitetura flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Arquitetura flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vue.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição vue.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TypeScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição typeScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vangrant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Vangrant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ansible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Ansible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kubernetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição kubernetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AWS S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição AWS S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Amazon EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon AWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Amazon AWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco CCNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Cisco CCNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Fundamentals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição network fundamentals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAN Switching Fundamentals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição LAN Switching fundamentals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Routing Fundamentals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição routing fundamentals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Infrastructure Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Maintence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição infrastructure Maintence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powershell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição powershell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição redes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipv6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Ipv6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OWASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição OWASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pfSense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição pfSense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição iptables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição firewall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição segurança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição XSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Assigment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Mass Assigment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL/SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição PL/SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Home Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição CPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição Xcode</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="376">
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>LINGUAGEM_DE_PROGRAMACAO</t>
+  </si>
+  <si>
+    <t>Java é uma linguagem de programação interpretada orientada a objetos desenvolvida na década de 90 e diferente das linguagens de programação convencionais, que são compiladas para código nativo, a linguagem Java é compilada para um bytecode que é interpretado por uma máquina virtual (Java Virtual Machine, mais conhecida pela sua abreviação JVM). A linguagem de programação Java é a linguagem convencional da Plataforma Java, mas não é a sua única linguagem. O foco da plataforma é outro: aplicações de médio a grande porte, onde o time de desenvolvedores tem várias pessoas e sempre pode vir a mudar e crescer. Não tenha dúvidas que criar a primeira versão de uma aplicação usando Java, mesmo utilizando IDEs e ferramentas poderosas, será mais trabalhoso que muitas linguagens script ou de alta produtividade. Porém, com uma linguagem orientada a objetos e madura como o Java, será extremamente mais fácil e rápido fazer alterações no sistema, desde que você siga as boas práticas e recomendações sobre design orientado a objetos. Além disso, a quantidade enorme de bibliotecas gratuitas para  realizar os mais diversos trabalhos (tais como  relatórios, gráficos, sistemas de busca, geração de código de barra, manipulação de XML, tocadores de vídeo, manipuladores de texto, persistência transparente, impressão, etc) é um ponto fortíssimo para adoção do Java: você pode criar uma aplicação sofisticada, usando diversos recursos, sem precisar comprar um componente específico, que costuma ser caro. O ecossistema do Java é enorme. Cada linguagem tem seu espaço e seu melhor uso. O uso do Java é interessante em aplicações que virão a crescer, em que a legibilidade do código é importante, onde temos muita conectividade e se há muitas plataformas (ambientes e sistemas operacionais) heterogêneas (Linux, Unix, OSX e Windows misturados). [fonte: apostila FJ11]</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>C# (lê-se "cê xarpe") é uma linguagem de programação, multi-paradigma, fortemente 'tipada', e, possuindo paradigmas de programação imperativa, funcional, declarativa, orientada a objetos e genérica, C# foi desenvolvida pela Microsoft como parte da plataforma .NET. A sua sintaxe orientada a objetos foi baseada no C++ mas inclui muitas influências de outras linguagens de programação, como Object Pascal e, principalmente, Java. O código fonte é compilado para Common Intermediate Language (CIL) que é interpretado pela máquina virtual Common Language Runtime (CLR). C# é uma das linguagens projetadas para funcionar na Common Language Infrastructure da plataforma .NET Framework. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Python é uma linguagem de programação de alto nível, interpretada, de script, imperativa, orientada a objetos, funcional, de tipagem dinâmica e forte. Foi lançada por Guido van Rossum em 1991. Atualmente possui um modelo de desenvolvimento comunitário, aberto e gerenciado pela organização sem fins lucrativos Python Software Foundation. Apesar de várias partes da linguagem possuírem padrões e especificações formais, a linguagem como um todo não é formalmente especificada. O padrão de facto é a implementação Cpython. A linguagem foi projetada com a filosofia de enfatizar a importância do esforço do programador sobre o esforço computacional. Prioriza a legibilidade do código sobre a velocidade ou expressividade. Combina uma sintaxe concisa e clara com os recursos poderosos de sua biblioteca padrão e por módulos e frameworks desenvolvidos por terceiros. Python é uma linguagem de propósito geral, possui tipagem dinâmica e uma de suas principais características é permitir a fácil leitura do código e exigir poucas linhas de código se comparado ao mesmo programa em outras linguagens. Devido às suas características, ela é principalmente utilizada para processamento de textos, dados científicos e criação de CGIs para páginas dinâmicas para a web. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript é uma linguagem de programação interpretada. Foi originalmente implementada como parte dos navegadores web para que scripts pudessem ser executados do lado do cliente e interagissem com o usuário sem a necessidade deste script passar pelo servidor, controlando o navegador, realizando comunicação assíncrona e alterando o conteúdo do documento exibido. É atualmente a principal linguagem para programação client-side em navegadores web. Começa também a ser bastante utilizada do lado do servidor através de ambientes como o node.js. Foi concebida para ser uma linguagem script com orientação a objetos baseada em protótipos, tipagem fraca e dinâmica e funções de primeira classe. Possui suporte à programação funcional e apresenta recursos como fechamentos e funções de alta ordem comumente indisponíveis em linguagens populares como Java e C++. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>descrição C++</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>descrição C</t>
+  </si>
+  <si>
+    <t>Haskell</t>
+  </si>
+  <si>
+    <t>descrição Haskell</t>
+  </si>
+  <si>
+    <t>Lisp</t>
+  </si>
+  <si>
+    <t>descrição Lisp</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>descrição Ruby</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>descrição PHP</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R é uma linguagem e também um ambiente de desenvolvimento integrado para cálculos estatísticos e gráficos. O código fonte do R está disponível sob a licença GNU GPL e as versões binárias pré-compiladas são fornecidas para Windows, Macintosh, e muitos sistemas operacionais Unix/Linux. A linguagem R é largamente usada entre estatísticos e analistas de dados para desenvolver software de estatística e análise de dados. Pesquisas e levantamentos com profissionais da área mostram que a popularidade do R aumentou substancialmente nos últimos anos. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>LINGUAGEM_DE_MARCACAO</t>
+  </si>
+  <si>
+    <t>descrição HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>FOLHA_DE_ESTILO</t>
+  </si>
+  <si>
+    <t>Cascading Style Sheets (CSS) é um simples mecanismo para adicionar estilo (cores, fontes, espaçamento, etc.) a um documento web. Definição de estilo é um conjunto de propriedades visuais para um elemento, o CSS define regras que fazem as definições de estilo casarem com um elemento ou grupo de elemento, o documento pode conter um bloco de CSS num elemento style ou usando o element link apontando para um arquivo externo que contenha o bloco CSS. Com a variação de atualizações dos navegadores, o suporte ao CSS pode variar. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>descrição Kotlin</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>descrição Swift</t>
+  </si>
+  <si>
+    <t>Objective-C</t>
+  </si>
+  <si>
+    <t>descrição Objective-C</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>BANCO_DE_DADOS</t>
+  </si>
+  <si>
+    <t>O MySQL é um sistema de gerenciamento de banco de dados (SGBD), que utiliza a linguagem SQL (Linguagem de Consulta Estruturada, do inglês Structured Query Language) como interface. É atualmente um dos sistemas de gerenciamento de bancos de dados mais populares, com mais de 10 milhões de instalações pelo mundo. O sucesso do MySQL deve-se em grande medida à fácil integração com o PHP incluído, quase que obrigatoriamente, nos pacotes de hospedagem de sites da Internet oferecidos atualmente. Dentre as principais características estão: Portabilidade (suporta praticamente qualquer plataforma atual); Compatibilidade (existem drivers ODBC, JDBC e .NET e módulos de interface para diversas linguagens de programação, como Delphi, Java, C/C++, C#, Visual Basic, Python, Perl, PHP, ASP e Ruby) e contempla a utilização de vários Storage Engines como MyISAM, InnoDB, Falcon, BDB, Archive, Federated, CSV, Solid, etc... É de fácil manuseio e possui excelente desempenho e estabilidade. Suporta controle transacional, triggers, ccrsors, stored procedures e functions. [fonte: Wikipedia].</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Descrição Oracle</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>OUTROS</t>
+  </si>
+  <si>
+    <t>descrição SQL</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>descrição MongoDB</t>
+  </si>
+  <si>
+    <t>MariaDB</t>
+  </si>
+  <si>
+    <t>descrição MariaDB</t>
+  </si>
+  <si>
+    <t>SQLServer</t>
+  </si>
+  <si>
+    <t>descrição SQLServer</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>FRAMEWORK</t>
+  </si>
+  <si>
+    <t>O Spring é um framework open source para a plataforma Java baseado nos padrões de projeto inversão de controle (IoC) e injeção de dependência. Esse framework oferece diversos módulos que podem ser utilizados de acordo com as necessidades do projeto, como módulos voltados para desenvolvimento Web, persistência, acesso remoto e programação orientada a aspectos. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>descrição hibernate</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Flask é um pequeno framework web escrito em Python e baseado na biblioteca WSGI Werkzeug e na biblioteca de Jinja2. Flask tem a flexibilidade da linguagem de programação Python e provê um modelo simples para desenvolvimento web. Uma vez importando no Python, Flask pode ser usado para economizar tempo construindo aplicações web. É chamado de microframework porque mantem um núcleo simples mas estendível. Não há uma camada de abstração do banco de dados, validação de formulários, ou qualquer outro componente onde bibliotecas de terceiros existem para prover a funcionalidade. Assim, Flask suporta extensões capazes de adicionar tais funcionalidades na aplicação final. Há uma vasta coleção de bibliotecas para resolver essas questões em Python, isso simplifica o framework e torna sua curva de aprendizado mais suave. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>Django é um framework para desenvolvimento rápido para web, escrito em Python, que utiliza o padrão model-template-view (MTV). Django utiliza o princípio DRY (Don't Repeat Yourself), onde faz com que o desenvolvedor aproveite ao máximo o código já feito, evitando a repetição. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>descrição JPA</t>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>descrição JDBC</t>
+  </si>
+  <si>
+    <t>JTA</t>
+  </si>
+  <si>
+    <t>descrição JTA</t>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>descrição JSF</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>PROTOCOLO</t>
+  </si>
+  <si>
+    <t>O Hypertext Transfer Protocol, sigla HTTP (em português Protocolo de Transferência de Hipertexto) é um protocolo de comunicação (na camada de aplicação segundo o Modelo OSI) utilizado para sistemas de informação de hipermídia, distribuídos e colaborativos. Ele é a base para a comunicação de dados da World Wide Web. Hipertexto é o texto estruturado que utiliza ligações lógicas (hiperlinks) entre nós contendo texto. O HTTP é o protocolo para a troca ou transferência de hipertexto. O HTTP funciona como um protocolo de requisição-resposta no modelo computacional cliente-servidor. Um navegador web, por exemplo, pode ser o cliente e uma aplicação em um computador que hospeda um sítio da web pode ser o servidor. O cliente submete uma mensagem de requisição HTTP para o servidor. O servidor, que fornece os recursos, como arquivos HTML e outros conteúdos, ou realiza outras funções de interesse do cliente, retorna uma mensagem resposta para o cliente. A resposta contém informações de estado completas sobre a requisição e pode também conter o conteúdo solicitado no corpo de sua mensagem. [fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>VERSIONAMENTO</t>
+  </si>
+  <si>
+    <t>descrição GIT</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>BUILD</t>
+  </si>
+  <si>
+    <t>descrição Maven</t>
+  </si>
+  <si>
+    <t>Play Framework</t>
+  </si>
+  <si>
+    <t>descrição Play Framework</t>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <t>BIBLIOTECA</t>
+  </si>
+  <si>
+    <t>jQuery é uma biblioteca de funções JavaScrip que interage com o HTML, desenvolvida para simplificar os scripts interpretados no navegador do cliente. Usada por cerca de 77% dos 10 mil sites mais visitados do mundo, jQuery é a mais popular das bibliotecas JavaScript. A sintaxe do jQuery foi desenvolvida para tornar mais simples a navegação do documento HTML, a seleção de elementos DOM, criar animações, manipular eventos, desenvolver aplicações AJAX e criação de plugins sobre ela. Tais facilidades permitem aos desenvolvedores criarem camadas de abstração para interações de baixo nível de modo simplificado em aplicações web dinâmicas de grande complexidade.[fonte: Wikipedia]</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>descrição Bootstrap</t>
+  </si>
+  <si>
+    <t>Primefaces</t>
+  </si>
+  <si>
+    <t>descrição primefaces</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>descrição Spring Boot</t>
+  </si>
+  <si>
+    <t>JAAS</t>
+  </si>
+  <si>
+    <t>ESPECIFICACAO</t>
+  </si>
+  <si>
+    <t>descrição JAAS</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>descrição JMS</t>
+  </si>
+  <si>
+    <t>JAX-RS</t>
+  </si>
+  <si>
+    <t>descrição JAS-RS</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>descrição IA</t>
+  </si>
+  <si>
+    <t>Estatística</t>
+  </si>
+  <si>
+    <t>descrição Estatística</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>descrição Arduino</t>
+  </si>
+  <si>
+    <t>Amazon Alexa</t>
+  </si>
+  <si>
+    <t>descrição Amazon Alexa</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>descrição Raspberry Pi</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+  </si>
+  <si>
+    <t>descrição MQTT</t>
+  </si>
+  <si>
+    <t>NodeMcu</t>
+  </si>
+  <si>
+    <t>descrição NodeMcu</t>
+  </si>
+  <si>
+    <t>Robótica</t>
+  </si>
+  <si>
+    <t>descrição Robótica</t>
+  </si>
+  <si>
+    <t>ASP .NET</t>
+  </si>
+  <si>
+    <t>descrição ASP .NET</t>
+  </si>
+  <si>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>descrição .NET</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>descrição IoT</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>descrição Machine Learning</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>descrição REST</t>
+  </si>
+  <si>
+    <t>WebSockets</t>
+  </si>
+  <si>
+    <t>descrição WebSockets</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>descrição Android</t>
+  </si>
+  <si>
+    <t>Android Studio</t>
+  </si>
+  <si>
+    <t>descrição Android Studio</t>
+  </si>
+  <si>
+    <t>Fragments</t>
+  </si>
+  <si>
+    <t>descrição Fragments</t>
+  </si>
+  <si>
+    <t>Google Maps</t>
+  </si>
+  <si>
+    <t>descrição Google Maps</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>descrição GPS</t>
+  </si>
+  <si>
+    <t>Jogos</t>
+  </si>
+  <si>
+    <t>descrição Jogos</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>descrição iOS</t>
+  </si>
+  <si>
+    <t>Cordova</t>
+  </si>
+  <si>
+    <t>descrição Cordova</t>
+  </si>
+  <si>
+    <t>PhoneGap</t>
+  </si>
+  <si>
+    <t>descrição phoneGap</t>
+  </si>
+  <si>
+    <t>Xamarin</t>
+  </si>
+  <si>
+    <t>descrição Xamarin</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>descrição Visual Studio</t>
+  </si>
+  <si>
+    <t>Ionic</t>
+  </si>
+  <si>
+    <t>descrição Ionic</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>descrição Angular</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>descrição JSP</t>
+  </si>
+  <si>
+    <t>JSTL</t>
+  </si>
+  <si>
+    <t>descrição JSTL</t>
+  </si>
+  <si>
+    <t>EJB</t>
+  </si>
+  <si>
+    <t>descrição EJB</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>descrição CDI</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>descrição Spring MVC</t>
+  </si>
+  <si>
+    <t>Spring Security</t>
+  </si>
+  <si>
+    <t>descrição Spring Security</t>
+  </si>
+  <si>
+    <t>Spring Data</t>
+  </si>
+  <si>
+    <t>descrição Spring Data</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>descrição Jersey</t>
+  </si>
+  <si>
+    <t>JAX-WS</t>
+  </si>
+  <si>
+    <t>descrição JAX-WS</t>
+  </si>
+  <si>
+    <t>ActiveMQ</t>
+  </si>
+  <si>
+    <t>descrição ActiveMQ</t>
+  </si>
+  <si>
+    <t>Apache Camel</t>
+  </si>
+  <si>
+    <t>descrição Apache Camel</t>
+  </si>
+  <si>
+    <t>Rest Assured</t>
+  </si>
+  <si>
+    <t>descrição Rest Assured</t>
+  </si>
+  <si>
+    <t>SOLID</t>
+  </si>
+  <si>
+    <t>descrição SOLID</t>
+  </si>
+  <si>
+    <t>Java Reflection</t>
+  </si>
+  <si>
+    <t>descrição Java reflection</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>descrição XML</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>descrição Threads</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>descrição Eclipse</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>descrição intelliJ IDEA</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>descrição TDD</t>
+  </si>
+  <si>
+    <t>Teste de Integração</t>
+  </si>
+  <si>
+    <t>descrição teste de integração</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
+  </si>
+  <si>
+    <t>descrição entity framework</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>descrição MVC</t>
+  </si>
+  <si>
+    <t>C# Reflection</t>
+  </si>
+  <si>
+    <t>descrição C# Reflection</t>
+  </si>
+  <si>
+    <t>Entity Framework Core</t>
+  </si>
+  <si>
+    <t>descrição Entity Framework core</t>
+  </si>
+  <si>
+    <t>Entity LinQ</t>
+  </si>
+  <si>
+    <t>descrição LinQ</t>
+  </si>
+  <si>
+    <t>Ruby on Rails</t>
+  </si>
+  <si>
+    <t>descrição Ruby on rails</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>descrição wordpress</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
+  </si>
+  <si>
+    <t>descrição Chatbot</t>
+  </si>
+  <si>
+    <t>Cocos Creator</t>
+  </si>
+  <si>
+    <t>descrição Cocos Creator</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>descrição Unity</t>
+  </si>
+  <si>
+    <t>Amazon IoT</t>
+  </si>
+  <si>
+    <t>descrição Amazon IoT</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>descrição GPIO</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>descrição Jasmine</t>
+  </si>
+  <si>
+    <t>Progressive Web Apps</t>
+  </si>
+  <si>
+    <t>descrição progressive web apps</t>
+  </si>
+  <si>
+    <t>Gulp</t>
+  </si>
+  <si>
+    <t>descrição Gulp</t>
+  </si>
+  <si>
+    <t>Sass</t>
+  </si>
+  <si>
+    <t>descrição Sass</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>descrição Compass</t>
+  </si>
+  <si>
+    <t>Chrome Dev Tools</t>
+  </si>
+  <si>
+    <t>descrição Chrome Dev Tools</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>descrição Node.js</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>descrição react</t>
+  </si>
+  <si>
+    <t>Webpack</t>
+  </si>
+  <si>
+    <t>descrição Webpack</t>
+  </si>
+  <si>
+    <t>Redux</t>
+  </si>
+  <si>
+    <t>descrição redux</t>
+  </si>
+  <si>
+    <t>Arquitetura flux</t>
+  </si>
+  <si>
+    <t>descrição Arquitetura flux</t>
+  </si>
+  <si>
+    <t>Vue.js</t>
+  </si>
+  <si>
+    <t>descrição vue.js</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>descrição typeScript</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>descrição Linux</t>
+  </si>
+  <si>
+    <t>Vangrant</t>
+  </si>
+  <si>
+    <t>descrição Vangrant</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>descrição Ansible</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>descrição Docker</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>descrição kubernetes</t>
+  </si>
+  <si>
+    <t>AWS S3</t>
+  </si>
+  <si>
+    <t>descrição AWS S3</t>
+  </si>
+  <si>
+    <t>Amazon EC2</t>
+  </si>
+  <si>
+    <t>descrição Amazon EC2</t>
+  </si>
+  <si>
+    <t>Amazon AWS</t>
+  </si>
+  <si>
+    <t>descrição Amazon AWS</t>
+  </si>
+  <si>
+    <t>Cisco CCNA</t>
+  </si>
+  <si>
+    <t>descrição Cisco CCNA</t>
+  </si>
+  <si>
+    <t>Network Fundamentals</t>
+  </si>
+  <si>
+    <t>descrição network fundamentals</t>
+  </si>
+  <si>
+    <t>LAN Switching Fundamentals</t>
+  </si>
+  <si>
+    <t>descrição LAN Switching fundamentals</t>
+  </si>
+  <si>
+    <t>Routing Fundamentals</t>
+  </si>
+  <si>
+    <t>descrição routing fundamentals</t>
+  </si>
+  <si>
+    <t>Infrastructure Services</t>
+  </si>
+  <si>
+    <t>descrição Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Infrastructure Maintence</t>
+  </si>
+  <si>
+    <t>descrição infrastructure Maintence</t>
+  </si>
+  <si>
+    <t>Powershell</t>
+  </si>
+  <si>
+    <t>descrição powershell</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>descrição jobs</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>descrição script</t>
+  </si>
+  <si>
+    <t>Redes</t>
+  </si>
+  <si>
+    <t>descrição redes</t>
+  </si>
+  <si>
+    <t>Ipv6</t>
+  </si>
+  <si>
+    <t>descrição Ipv6</t>
+  </si>
+  <si>
+    <t>OWASP</t>
+  </si>
+  <si>
+    <t>descrição OWASP</t>
+  </si>
+  <si>
+    <t>pfSense</t>
+  </si>
+  <si>
+    <t>descrição pfSense</t>
+  </si>
+  <si>
+    <t>iptables</t>
+  </si>
+  <si>
+    <t>descrição iptables</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>descrição firewall</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>descrição segurança</t>
+  </si>
+  <si>
+    <t>XSS</t>
+  </si>
+  <si>
+    <t>descrição XSS</t>
+  </si>
+  <si>
+    <t>Mass Assigment</t>
+  </si>
+  <si>
+    <t>descrição Mass Assigment</t>
+  </si>
+  <si>
+    <t>PL/SQL</t>
+  </si>
+  <si>
+    <t>descrição PL/SQL</t>
+  </si>
+  <si>
+    <t>Home Assistant</t>
+  </si>
+  <si>
+    <t>descrição Home Assistant</t>
+  </si>
+  <si>
+    <t>CPIO</t>
+  </si>
+  <si>
+    <t>descrição CPIO</t>
+  </si>
+  <si>
+    <t>Xcode</t>
+  </si>
+  <si>
+    <t>descrição Xcode</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>descrição Canvas</t>
+  </si>
+  <si>
+    <t>Facelets</t>
+  </si>
+  <si>
+    <t>descrição Facelets</t>
+  </si>
+  <si>
+    <t>BeanValidation</t>
+  </si>
+  <si>
+    <t>descrição BeanValidation</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>descrição json</t>
+  </si>
+  <si>
+    <t>WildFly</t>
+  </si>
+  <si>
+    <t>descrição WildFly</t>
+  </si>
+  <si>
+    <t>WSDL</t>
+  </si>
+  <si>
+    <t>descrição WSDL</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>descrição SOAP</t>
+  </si>
+  <si>
+    <t>Grizzly</t>
+  </si>
+  <si>
+    <t>descrição Grizzly</t>
+  </si>
+  <si>
+    <t>JAXB</t>
+  </si>
+  <si>
+    <t>descrição JAXB</t>
+  </si>
+  <si>
+    <t>Mensageria</t>
+  </si>
+  <si>
+    <t>descrição mensageria</t>
+  </si>
+  <si>
+    <t>DLQ</t>
+  </si>
+  <si>
+    <t>descrição DLQ</t>
+  </si>
+  <si>
+    <t>XSLT</t>
+  </si>
+  <si>
+    <t>descrição XSLT</t>
+  </si>
+  <si>
+    <t>Web Services</t>
+  </si>
+  <si>
+    <t>descrição Web Services</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>descrição reflection</t>
+  </si>
+  <si>
+    <t>XSD</t>
+  </si>
+  <si>
+    <t>Descrição xsd</t>
+  </si>
+  <si>
+    <t>Sockets</t>
+  </si>
+  <si>
+    <t>descrição sockets</t>
+  </si>
+  <si>
+    <t>Design Patterns</t>
+  </si>
+  <si>
+    <t>descrição design patterns</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>descrição testes</t>
+  </si>
+  <si>
+    <t>Mock</t>
+  </si>
+  <si>
+    <t>descrição Mock</t>
+  </si>
+  <si>
+    <t>AJAX</t>
+  </si>
+  <si>
+    <t>descrição AJAX</t>
+  </si>
+  <si>
+    <t>SMTP</t>
+  </si>
+  <si>
+    <t>descrição SMTP</t>
+  </si>
+  <si>
+    <t>Certificação</t>
+  </si>
+  <si>
+    <t>descrição certificação</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>descrição CSV</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>descrição Watson</t>
+  </si>
+  <si>
+    <t>RetroPie</t>
+  </si>
+  <si>
+    <t>descrição RetroPie</t>
+  </si>
+  <si>
+    <t>IndexDB</t>
+  </si>
+  <si>
+    <t>descrição IndexDB</t>
+  </si>
+  <si>
+    <t>Babel</t>
+  </si>
+  <si>
+    <t>descrição Babel</t>
+  </si>
+  <si>
+    <t>Web Design Responsivo</t>
+  </si>
+  <si>
+    <t>descrição web design responsivo</t>
+  </si>
+  <si>
+    <t>NoSQL</t>
+  </si>
+  <si>
+    <t>descrição NoSQL</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>descrição express</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>descrição JWT</t>
+  </si>
+  <si>
+    <t>Retrofit</t>
+  </si>
+  <si>
+    <t>descrição retrofit</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>descrição migration</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>descrição UUID</t>
+  </si>
+  <si>
+    <t>Core Data</t>
+  </si>
+  <si>
+    <t>descrição core data</t>
+  </si>
+  <si>
+    <t>HoneGap</t>
+  </si>
+  <si>
+    <t>descrição HoneGap</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>descrição SQLite</t>
+  </si>
+  <si>
+    <t>JPQL</t>
+  </si>
+  <si>
+    <t>descrição JPQL</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>descrição DynamoDB</t>
   </si>
 </sst>
 </file>
@@ -921,7 +1150,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1035,10 +1264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A164" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A182" activeCellId="0" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2622,6 +2851,435 @@
         <v>297</v>
       </c>
     </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
